--- a/hosts/host_app/app_data.xlsx
+++ b/hosts/host_app/app_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19169b7faabd7f23/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\astrid\Airflow\hosts\host_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{A0DD2D1A-282E-4428-8F9B-EE02AF4929F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4CCF4DC-A192-4210-A0C1-D17BDCD4BA2F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1C6922-85E6-4FEA-BE2E-D114B1A31F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4BFB0005-3403-4A70-8967-29BE050B82F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4BFB0005-3403-4A70-8967-29BE050B82F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Stephanie Wilson</t>
   </si>
@@ -135,13 +135,16 @@
   </si>
   <si>
     <t>click_events</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +156,14 @@
       <sz val="11"/>
       <color rgb="FF212529"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -175,11 +186,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,31 +508,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195CCE2E-F419-479E-8824-57707FB3EAD3}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5320</v>
+        <f t="shared" ref="A2" ca="1" si="0">RANDBETWEEN(1,100000)</f>
+        <v>23733</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -526,10 +544,14 @@
       <c r="C2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="2">
+        <v>38322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>7500</v>
+        <f t="shared" ref="A3:A31" ca="1" si="1">RANDBETWEEN(1,100000)</f>
+        <v>78182</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -537,374 +559,463 @@
       <c r="C3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="2">
+        <v>38727</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A3:A31" ca="1" si="0">RANDBETWEEN(1,100000)</f>
-        <v>3341</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>78033</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C3:C31" ca="1" si="1">RANDBETWEEN(1,30)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ref="C4:C31" ca="1" si="2">RANDBETWEEN(1,30)</f>
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>40126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" ca="1" si="0"/>
-        <v>9849</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>13457</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="1"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>40324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" ca="1" si="0"/>
-        <v>65399</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>55013</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>41234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" ca="1" si="0"/>
-        <v>91406</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>97220</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7">
-        <f t="shared" ca="1" si="1"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="D7" s="2">
+        <v>41372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" ca="1" si="0"/>
-        <v>41729</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>76568</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
+        <v>41431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" ca="1" si="0"/>
-        <v>82084</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16734</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
+        <v>41556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" ca="1" si="0"/>
-        <v>6095</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>90926</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10">
-        <f t="shared" ca="1" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="D10" s="2">
+        <v>41618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" ca="1" si="0"/>
-        <v>39468</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>71672</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C11">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>41743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" ca="1" si="0"/>
-        <v>18838</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>11165</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12">
-        <f t="shared" ca="1" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D12" s="2">
+        <v>42226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" ca="1" si="0"/>
-        <v>68540</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30463</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13">
-        <f t="shared" ca="1" si="1"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D13" s="2">
+        <v>42639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" ca="1" si="0"/>
-        <v>75538</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8020</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14">
-        <f t="shared" ca="1" si="1"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="D14" s="2">
+        <v>42713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" ca="1" si="0"/>
-        <v>50091</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4781</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D15" s="2">
+        <v>43300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" ca="1" si="0"/>
-        <v>11357</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44701</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C16">
-        <f t="shared" ca="1" si="1"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="D16" s="2">
+        <v>43508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" ca="1" si="0"/>
-        <v>88878</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>94348</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C17">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <v>43577</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" ca="1" si="0"/>
-        <v>30831</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>33510</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C18">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="D18" s="2">
+        <v>43657</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" ca="1" si="0"/>
-        <v>93658</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>63444</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="D19" s="2">
+        <v>43671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" ca="1" si="0"/>
-        <v>87078</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>74597</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C20">
-        <f t="shared" ca="1" si="1"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D20" s="2">
+        <v>43782</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" ca="1" si="0"/>
-        <v>79916</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>56151</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C21">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D21" s="2">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" ca="1" si="0"/>
-        <v>60329</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>34213</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C22">
-        <f t="shared" ca="1" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D22" s="2">
+        <v>44057</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" ca="1" si="0"/>
-        <v>13307</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>79383</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C23">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D23" s="2">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" ca="1" si="0"/>
-        <v>29009</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8777</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C24">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D24" s="2">
+        <v>44221</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" ca="1" si="0"/>
-        <v>16371</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>41703</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="D25" s="2">
+        <v>44559</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" ca="1" si="0"/>
-        <v>43540</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>58012</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C26">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="D26" s="2">
+        <v>44609</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" ca="1" si="0"/>
-        <v>97899</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>83940</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C27">
-        <f t="shared" ca="1" si="1"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D27" s="2">
+        <v>38056</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" ca="1" si="0"/>
-        <v>55050</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43881</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C28">
-        <f t="shared" ca="1" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="D28" s="2">
+        <v>38230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" ca="1" si="0"/>
-        <v>4663</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>17243</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C29">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D29" s="2">
+        <v>38231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" ca="1" si="0"/>
-        <v>63995</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>96764</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C30">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D30" s="2">
+        <v>38617</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" ca="1" si="0"/>
-        <v>54205</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>80737</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C31">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D31" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -914,7 +1025,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
